--- a/StructureDefinition-ext-R5-Claim.supportingInfo.xlsx
+++ b/StructureDefinition-ext-R5-Claim.supportingInfo.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="187">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,15 +458,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The valuset used for additional information category codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-claim-informationcategory-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:code</t>
   </si>
   <si>
@@ -496,12 +487,6 @@
   </si>
   <si>
     <t>Extension.extension:code.value[x]</t>
-  </si>
-  <si>
-    <t>The valuset used for additional information codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-claim-exception-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:timing</t>
@@ -613,12 +598,6 @@
   </si>
   <si>
     <t>Extension.extension:reason.value[x]</t>
-  </si>
-  <si>
-    <t>Reason codes for the missing teeth.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-missing-tooth-reason-for-R4</t>
   </si>
   <si>
     <t>base64Binary
@@ -978,8 +957,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.65625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.7734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2424,13 +2403,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2468,13 +2447,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2499,14 +2478,14 @@
         <v>95</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2575,7 +2554,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -2678,7 +2657,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -2783,7 +2762,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -2826,7 +2805,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2888,7 +2867,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>124</v>
@@ -2917,10 +2896,10 @@
         <v>139</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2947,13 +2926,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2991,13 +2970,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3022,14 +3001,14 @@
         <v>95</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3098,7 +3077,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3201,7 +3180,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3306,7 +3285,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3349,7 +3328,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3411,7 +3390,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>124</v>
@@ -3437,13 +3416,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3514,13 +3493,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3545,16 +3524,16 @@
         <v>95</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3623,7 +3602,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -3726,7 +3705,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -3831,7 +3810,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -3874,7 +3853,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3936,7 +3915,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>124</v>
@@ -3962,16 +3941,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4041,13 +4020,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4072,16 +4051,16 @@
         <v>95</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4150,7 +4129,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -4253,7 +4232,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -4358,7 +4337,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -4401,7 +4380,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4463,7 +4442,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>124</v>
@@ -4492,13 +4471,13 @@
         <v>139</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4524,13 +4503,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -4699,13 +4678,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
